--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,34 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>用户数</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号</t>
-    </r>
-  </si>
-  <si>
-    <t>2号</t>
-  </si>
-  <si>
-    <t>3号</t>
-  </si>
-  <si>
-    <t>4号</t>
   </si>
 </sst>
 </file>
@@ -55,23 +33,13 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -540,163 +508,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,13 +985,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7760416666667" style="1"/>
   </cols>
@@ -1031,44 +1000,76 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>45109</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>45110</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>45111</v>
       </c>
       <c r="B5">
         <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B9">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>用户数</t>
+    <t>最高气温</t>
+  </si>
+  <si>
+    <t>最低气温</t>
   </si>
 </sst>
 </file>
@@ -43,12 +46,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -653,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,9 +666,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -988,7 +990,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
@@ -1003,8 +1005,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
@@ -1013,63 +1017,86 @@
       <c r="B2">
         <v>23</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>45109</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>45110</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>45111</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>45112</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>45113</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>45114</v>
       </c>
       <c r="B8">
-        <v>86</v>
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>45115</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
